--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1387442.760312767</v>
+        <v>1443250.591592584</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484454</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6633699.701293685</v>
+        <v>6640012.833062146</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>76.55246125881381</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>267.7357237463023</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,10 +874,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>184.2976323992278</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.67859516108212</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>33.58079695703562</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.355512532834</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>171.3993061687185</v>
+        <v>58.75419230852108</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1145,13 +1145,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>57.55526645593295</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454363</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.67077719907196</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907106</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.1921297287216</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068455</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.84692347866496</v>
+        <v>33.08339867820196</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10.04027365719926</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,16 +2132,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>206.898123256353</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>132.795767308455</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>93.33789293904154</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>141.3509401177976</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.34318456170499</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>41.48733421943362</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2773,7 +2773,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>129.7139627068458</v>
+        <v>129.713962706846</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2959,7 +2959,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513587</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>103.828474294603</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3284,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791304972</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3569,7 +3569,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633422</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225762</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.76104808841</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3797,7 +3797,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655108</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904367</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>266.859480879742</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.0567773522576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225694</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1022.177246202103</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>988.0751774259302</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>910.7494589826839</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>476.9747141409791</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1699.767264620228</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1699.767264620228</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1699.767264620228</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2235.297000382379</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>2235.297000382379</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1872.680050316205</v>
       </c>
       <c r="W2" t="n">
-        <v>450.4214956153326</v>
+        <v>1871.864999767643</v>
       </c>
       <c r="X2" t="n">
-        <v>179.9813706190676</v>
+        <v>1452.722536346953</v>
       </c>
       <c r="Y2" t="n">
-        <v>175.7356509591251</v>
+        <v>1044.436412646607</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.1709577106444</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>899.603321627118</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>727.041610110343</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>561.1636173118657</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>391.405613562603</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>214.6985595243592</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>200.0427573423663</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>618.2526391103273</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1077.73650629124</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.995309448885</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674667</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645008</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091164</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1750.392590344269</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1750.392590344269</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1564.233365698585</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>1318.841611031997</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>1091.421940346105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1786.45307593959</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1033.105672808467</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X5" t="n">
-        <v>613.9632093877782</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.6770856874316</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>89.90148899448771</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892337</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>1762.072708116164</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>1588.94209582453</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>1155.167350982825</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>727.2999213920325</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>325.9020900152964</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>473.4386690283502</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>928.4913703274439</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>928.4913703274439</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>928.4913703274439</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1383.544071626538</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626538</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447943</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1115.830096070394</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>943.2683845536191</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>777.3903917551418</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.632388005879</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851263</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264737</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>910.0345185255674</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1352.293321683212</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1771.962570908993</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1838.596772925631</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1838.596772925631</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1780.460140141861</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1535.068385475273</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1307.648714789381</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5048,43 +5048,43 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693463</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263769</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097165</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,10 +5121,10 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>833.4958082805805</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>660.9340967638054</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>495.0561039653281</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2581.420212063764</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2335.540765642219</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.84397037279</v>
+        <v>2057.107764895325</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1770.152256765756</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829512</v>
+        <v>1498.125852352047</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1252.73409768546</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1025.314426999568</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874951</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429652</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363478</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774512</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,16 +5358,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819521</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342121</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959684</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2713.395586583914</v>
       </c>
       <c r="S16" t="n">
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
         <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2522.958394689265</v>
       </c>
       <c r="C17" t="n">
         <v>2084.815921872688</v>
@@ -5507,58 +5507,58 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M17" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693463</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263769</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097165</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q17" t="n">
-        <v>4836.798834055759</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4764.22618407731</v>
+        <v>4803.381259633333</v>
       </c>
       <c r="T17" t="n">
-        <v>4544.158956950349</v>
+        <v>4803.381259633333</v>
       </c>
       <c r="U17" t="n">
         <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.542006884176</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3776.686552295209</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.54408887452</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.257965174173</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580463</v>
+        <v>784.8119928040988</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412712</v>
+        <v>784.8119928040988</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>618.9340000056216</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935312</v>
+        <v>449.1759962563589</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552875</v>
+        <v>272.468942218115</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111506</v>
+        <v>106.8776672439427</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418843</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875565</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477033</v>
+        <v>976.6306115230859</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.958394689265</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872689</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047133</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205428</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146361</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397526</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5762,40 +5762,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263767</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097163</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884176</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.686552295209</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.54408887452</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5838,13 +5838,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987274</v>
+        <v>1175.794137292997</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819523</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D22" t="n">
-        <v>633.6681025819523</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E22" t="n">
-        <v>633.6681025819523</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F22" t="n">
         <v>490.8893751902377</v>
@@ -5902,10 +5902,10 @@
         <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V22" t="n">
         <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1497.494507917314</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177145</v>
+        <v>1270.074837231423</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883921</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716171</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731397</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>303.556969623877</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856331</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>126.8499155856331</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6391,7 +6391,7 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N28" t="n">
         <v>1783.551532113124</v>
@@ -6415,7 +6415,7 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V28" t="n">
         <v>1748.411126173567</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238771</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477104</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130894</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066697</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771586</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004225</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436387</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903953</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736204</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751431</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258804</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876365</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
         <v>267.852115244952</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
         <v>5113.04201353898</v>
@@ -7445,16 +7445,16 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883913</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716163</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731389</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7600,19 +7600,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.244603858372</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1757.289095728803</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="44">
@@ -7628,49 +7628,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
         <v>5029.390139722817</v>
@@ -7685,13 +7685,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903953</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736203</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>632.556342075143</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258802</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876364</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>120.5000093134641</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.652494875571</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>592.3665637737936</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274541</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0775086564016</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8626,10 +8626,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,19 +9006,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.0111327346224</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.1445778789294</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>26.99333424003467</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.1445778789303</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>268.0111327346215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.9684315993364</v>
+        <v>49.7319563997994</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>128.46287890933</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,16 +24020,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>49.73195639979936</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>96.5625395927557</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>33.58904338006369</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>114.1599680048242</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>201.9333177378957</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>139.5921776627255</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>8.789189859683688</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627264</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>582490.5154775403</v>
+        <v>584434.3685078778</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>582490.5154775403</v>
+        <v>584984.8158890738</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>582853.0764339138</v>
+        <v>584984.8158890738</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556332.8923390317</v>
+        <v>556332.8923390316</v>
       </c>
     </row>
     <row r="6">
@@ -26317,7 +26317,7 @@
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260258</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
         <v>341228.6311308816</v>
@@ -26332,7 +26332,7 @@
         <v>341228.6311308815</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927127</v>
@@ -26353,7 +26353,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="P2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927129</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971963</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.762741488</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26433,7 +26433,7 @@
         <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13668.38414064837</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,10 +26448,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049268</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049268</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
         <v>14245.20557049268</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
         <v>73519.34227764752</v>
@@ -26509,7 +26509,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15016.88773601752</v>
+        <v>-48626.33543321576</v>
       </c>
       <c r="C6" t="n">
-        <v>127174.4129236924</v>
+        <v>148215.5187652263</v>
       </c>
       <c r="D6" t="n">
-        <v>121771.600564066</v>
+        <v>165556.0631391328</v>
       </c>
       <c r="E6" t="n">
-        <v>30241.61096055788</v>
+        <v>92229.27094767454</v>
       </c>
       <c r="F6" t="n">
-        <v>254040.9047125857</v>
+        <v>253964.3461577889</v>
       </c>
       <c r="G6" t="n">
-        <v>254040.9047125857</v>
+        <v>253964.3461577889</v>
       </c>
       <c r="H6" t="n">
-        <v>254040.9047125858</v>
+        <v>253964.3461577888</v>
       </c>
       <c r="I6" t="n">
-        <v>245300.709483588</v>
+        <v>245277.4851442054</v>
       </c>
       <c r="J6" t="n">
-        <v>152650.9597714374</v>
+        <v>103034.3712914315</v>
       </c>
       <c r="K6" t="n">
-        <v>263665.4251164275</v>
+        <v>249828.1922091999</v>
       </c>
       <c r="L6" t="n">
-        <v>254717.814027918</v>
+        <v>263642.2007770449</v>
       </c>
       <c r="M6" t="n">
-        <v>76874.43850595958</v>
+        <v>128652.2561640416</v>
       </c>
       <c r="N6" t="n">
-        <v>263665.4251164277</v>
+        <v>263642.2007770449</v>
       </c>
       <c r="O6" t="n">
-        <v>263665.4251164276</v>
+        <v>263642.200777045</v>
       </c>
       <c r="P6" t="n">
-        <v>263665.4251164275</v>
+        <v>263642.200777045</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26829,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>354.9982257184861</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>147.2153150401801</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>85.00850797034363</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.3579796189766</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,16 +27670,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2261030860414</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27789,10 +27789,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.78996144619879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>260.1513808085814</v>
+        <v>372.7964946687788</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>211.7508739136384</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>592.3665637737936</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>152.4600735274541</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>56.52305090189834</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>441.0775086564016</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.2218006662745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>67.30727476428069</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35425,13 +35425,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807277</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>40.81776196807323</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36130,19 +36130,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645591</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
